--- a/Johnson_Hall_Specimen_Collection.xlsx
+++ b/Johnson_Hall_Specimen_Collection.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah 23\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elman/Documents/GitHub/JH-Specimen-Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FA2619-A286-417D-A30B-52F50EE1E192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B27D33-0B78-FC48-B014-74E6985FCECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D0AFC8F9-2078-412A-8DA7-00D3BCD68DE4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{D0AFC8F9-2078-412A-8DA7-00D3BCD68DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="JH Specimen Notes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="1367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="1374">
   <si>
     <t>ID_Number</t>
   </si>
@@ -4135,6 +4135,27 @@
   </si>
   <si>
     <t>Rose K (14-3-C)</t>
+  </si>
+  <si>
+    <t>JH0051</t>
+  </si>
+  <si>
+    <t>JH0058</t>
+  </si>
+  <si>
+    <t>JH0062</t>
+  </si>
+  <si>
+    <t>JH0065</t>
+  </si>
+  <si>
+    <t>JH0075</t>
+  </si>
+  <si>
+    <t>JH0098</t>
+  </si>
+  <si>
+    <t>JH0003</t>
   </si>
 </sst>
 </file>
@@ -4492,22 +4513,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24342DA8-CDB1-4D63-87BA-93DDB7702C97}">
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A639" workbookViewId="0">
-      <selection activeCell="A660" sqref="A660"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="123.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="62.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="62.83203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4533,7 +4555,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4559,7 +4581,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4585,7 +4607,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4607,8 +4629,11 @@
       <c r="G4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4631,7 +4656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4654,7 +4679,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4680,7 +4705,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4703,7 +4728,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4726,7 +4751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4749,7 +4774,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4772,7 +4797,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4795,7 +4820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4818,7 +4843,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4844,7 +4869,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4870,7 +4895,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4893,7 +4918,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4916,7 +4941,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4939,7 +4964,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4962,7 +4987,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4985,7 +5010,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5008,7 +5033,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5031,7 +5056,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5054,7 +5079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5080,7 +5105,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5103,7 +5128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5126,7 +5151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5152,7 +5177,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5175,7 +5200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5198,7 +5223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5224,7 +5249,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5247,7 +5272,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5270,7 +5295,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5293,7 +5318,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5319,7 +5344,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5345,7 +5370,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5368,7 +5393,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5391,7 +5416,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5414,7 +5439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5437,7 +5462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5460,7 +5485,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5483,7 +5508,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5506,7 +5531,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5529,7 +5554,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5552,7 +5577,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5575,7 +5600,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5598,7 +5623,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5621,7 +5646,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5644,7 +5669,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5667,7 +5692,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5690,7 +5715,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5713,7 +5738,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5735,8 +5760,11 @@
       <c r="G52" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5759,7 +5787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -5782,7 +5810,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -5805,7 +5833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -5828,7 +5856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -5851,7 +5879,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -5874,7 +5902,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -5896,8 +5924,11 @@
       <c r="G59" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -5920,7 +5951,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5943,7 +5974,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5966,7 +5997,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5988,8 +6019,11 @@
       <c r="G63" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6012,7 +6046,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6035,7 +6069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6057,8 +6091,11 @@
       <c r="G66" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6081,7 +6118,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6104,7 +6141,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6127,7 +6164,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6150,7 +6187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6173,7 +6210,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6196,7 +6233,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6219,7 +6256,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6242,7 +6279,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6265,7 +6302,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6287,8 +6324,11 @@
       <c r="G76" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6311,7 +6351,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6334,7 +6374,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6357,7 +6397,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -6380,7 +6420,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6403,7 +6443,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6426,7 +6466,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6449,7 +6489,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6472,7 +6512,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6495,7 +6535,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6518,7 +6558,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6541,7 +6581,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6564,7 +6604,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6587,7 +6627,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6610,7 +6650,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6633,7 +6673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6656,7 +6696,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6679,7 +6719,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6702,7 +6742,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6725,7 +6765,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6748,7 +6788,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -6771,7 +6811,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -6794,7 +6834,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6816,8 +6856,11 @@
       <c r="G99" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6840,7 +6883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>242</v>
       </c>
@@ -6863,7 +6906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>243</v>
       </c>
@@ -6886,7 +6929,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>248</v>
       </c>
@@ -6909,7 +6952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>249</v>
       </c>
@@ -6932,7 +6975,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>250</v>
       </c>
@@ -6955,7 +6998,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>254</v>
       </c>
@@ -6978,7 +7021,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>266</v>
       </c>
@@ -7001,7 +7044,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>264</v>
       </c>
@@ -7024,7 +7067,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>255</v>
       </c>
@@ -7047,7 +7090,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>256</v>
       </c>
@@ -7070,7 +7113,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>258</v>
       </c>
@@ -7093,7 +7136,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>267</v>
       </c>
@@ -7116,7 +7159,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -7139,7 +7182,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>254</v>
       </c>
@@ -7162,7 +7205,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>254</v>
       </c>
@@ -7185,7 +7228,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>254</v>
       </c>
@@ -7208,7 +7251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>306</v>
       </c>
@@ -7231,7 +7274,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>275</v>
       </c>
@@ -7254,7 +7297,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>277</v>
       </c>
@@ -7277,7 +7320,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>279</v>
       </c>
@@ -7300,7 +7343,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>281</v>
       </c>
@@ -7323,7 +7366,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>279</v>
       </c>
@@ -7346,7 +7389,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>279</v>
       </c>
@@ -7369,7 +7412,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>285</v>
       </c>
@@ -7392,7 +7435,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>288</v>
       </c>
@@ -7415,7 +7458,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>289</v>
       </c>
@@ -7438,7 +7481,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>291</v>
       </c>
@@ -7461,7 +7504,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>291</v>
       </c>
@@ -7484,7 +7527,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>291</v>
       </c>
@@ -7507,7 +7550,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>291</v>
       </c>
@@ -7530,7 +7573,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>291</v>
       </c>
@@ -7553,7 +7596,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>291</v>
       </c>
@@ -7576,7 +7619,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>297</v>
       </c>
@@ -7599,7 +7642,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>299</v>
       </c>
@@ -7622,7 +7665,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>300</v>
       </c>
@@ -7645,7 +7688,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>300</v>
       </c>
@@ -7668,7 +7711,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>300</v>
       </c>
@@ -7691,7 +7734,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>300</v>
       </c>
@@ -7714,7 +7757,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>300</v>
       </c>
@@ -7737,7 +7780,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>304</v>
       </c>
@@ -7760,7 +7803,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>305</v>
       </c>
@@ -7783,7 +7826,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>307</v>
       </c>
@@ -7806,7 +7849,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>308</v>
       </c>
@@ -7829,7 +7872,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>309</v>
       </c>
@@ -7852,7 +7895,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>310</v>
       </c>
@@ -7875,7 +7918,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>323</v>
       </c>
@@ -7898,7 +7941,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>323</v>
       </c>
@@ -7921,7 +7964,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>323</v>
       </c>
@@ -7944,7 +7987,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>323</v>
       </c>
@@ -7967,7 +8010,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>323</v>
       </c>
@@ -7990,7 +8033,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>323</v>
       </c>
@@ -8013,7 +8056,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>323</v>
       </c>
@@ -8036,7 +8079,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>323</v>
       </c>
@@ -8059,7 +8102,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>323</v>
       </c>
@@ -8082,7 +8125,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>323</v>
       </c>
@@ -8105,7 +8148,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>324</v>
       </c>
@@ -8128,7 +8171,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>325</v>
       </c>
@@ -8151,7 +8194,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>326</v>
       </c>
@@ -8174,7 +8217,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>327</v>
       </c>
@@ -8197,7 +8240,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>328</v>
       </c>
@@ -8220,7 +8263,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>330</v>
       </c>
@@ -8243,7 +8286,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>332</v>
       </c>
@@ -8266,7 +8309,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>334</v>
       </c>
@@ -8289,7 +8332,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>335</v>
       </c>
@@ -8312,7 +8355,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -8335,7 +8378,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>336</v>
       </c>
@@ -8358,7 +8401,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>339</v>
       </c>
@@ -8381,7 +8424,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>336</v>
       </c>
@@ -8404,7 +8447,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>336</v>
       </c>
@@ -8427,7 +8470,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>336</v>
       </c>
@@ -8450,7 +8493,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>336</v>
       </c>
@@ -8473,7 +8516,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -8496,7 +8539,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -8519,7 +8562,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>353</v>
       </c>
@@ -8542,7 +8585,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>354</v>
       </c>
@@ -8565,7 +8608,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -8588,7 +8631,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>356</v>
       </c>
@@ -8611,7 +8654,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>359</v>
       </c>
@@ -8634,7 +8677,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>361</v>
       </c>
@@ -8657,7 +8700,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>364</v>
       </c>
@@ -8680,7 +8723,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>365</v>
       </c>
@@ -8703,7 +8746,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>366</v>
       </c>
@@ -8726,7 +8769,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>368</v>
       </c>
@@ -8749,7 +8792,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>370</v>
       </c>
@@ -8772,7 +8815,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>371</v>
       </c>
@@ -8795,7 +8838,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>372</v>
       </c>
@@ -8818,7 +8861,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -8841,7 +8884,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>380</v>
       </c>
@@ -8864,7 +8907,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>380</v>
       </c>
@@ -8887,7 +8930,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>380</v>
       </c>
@@ -8910,7 +8953,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>380</v>
       </c>
@@ -8933,7 +8976,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>380</v>
       </c>
@@ -8956,7 +8999,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>384</v>
       </c>
@@ -8979,7 +9022,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>386</v>
       </c>
@@ -9002,7 +9045,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>387</v>
       </c>
@@ -9025,7 +9068,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>388</v>
       </c>
@@ -9048,7 +9091,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>380</v>
       </c>
@@ -9071,7 +9114,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>380</v>
       </c>
@@ -9094,7 +9137,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>380</v>
       </c>
@@ -9117,7 +9160,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>393</v>
       </c>
@@ -9140,7 +9183,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>395</v>
       </c>
@@ -9163,7 +9206,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>397</v>
       </c>
@@ -9186,7 +9229,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>400</v>
       </c>
@@ -9209,7 +9252,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>401</v>
       </c>
@@ -9232,7 +9275,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>402</v>
       </c>
@@ -9255,7 +9298,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>403</v>
       </c>
@@ -9278,7 +9321,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>406</v>
       </c>
@@ -9301,7 +9344,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>408</v>
       </c>
@@ -9324,7 +9367,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>410</v>
       </c>
@@ -9347,7 +9390,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>411</v>
       </c>
@@ -9370,7 +9413,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>404</v>
       </c>
@@ -9393,7 +9436,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>418</v>
       </c>
@@ -9416,7 +9459,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>418</v>
       </c>
@@ -9439,7 +9482,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>418</v>
       </c>
@@ -9462,7 +9505,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>418</v>
       </c>
@@ -9485,7 +9528,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>418</v>
       </c>
@@ -9508,7 +9551,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>418</v>
       </c>
@@ -9531,7 +9574,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>418</v>
       </c>
@@ -9554,7 +9597,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>418</v>
       </c>
@@ -9577,7 +9620,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>418</v>
       </c>
@@ -9600,7 +9643,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>418</v>
       </c>
@@ -9623,7 +9666,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>421</v>
       </c>
@@ -9646,7 +9689,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>422</v>
       </c>
@@ -9669,7 +9712,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>424</v>
       </c>
@@ -9692,7 +9735,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>426</v>
       </c>
@@ -9715,7 +9758,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>426</v>
       </c>
@@ -9738,7 +9781,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>426</v>
       </c>
@@ -9761,7 +9804,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>426</v>
       </c>
@@ -9784,7 +9827,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>426</v>
       </c>
@@ -9807,7 +9850,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>426</v>
       </c>
@@ -9830,7 +9873,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>426</v>
       </c>
@@ -9853,7 +9896,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>426</v>
       </c>
@@ -9876,7 +9919,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>426</v>
       </c>
@@ -9899,7 +9942,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>426</v>
       </c>
@@ -9922,7 +9965,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>426</v>
       </c>
@@ -9945,7 +9988,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>426</v>
       </c>
@@ -9968,7 +10011,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>426</v>
       </c>
@@ -9991,7 +10034,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>426</v>
       </c>
@@ -10014,7 +10057,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>426</v>
       </c>
@@ -10037,7 +10080,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>426</v>
       </c>
@@ -10060,7 +10103,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>426</v>
       </c>
@@ -10083,7 +10126,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>426</v>
       </c>
@@ -10106,7 +10149,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>426</v>
       </c>
@@ -10129,7 +10172,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>426</v>
       </c>
@@ -10152,7 +10195,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>426</v>
       </c>
@@ -10175,7 +10218,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>426</v>
       </c>
@@ -10198,7 +10241,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>426</v>
       </c>
@@ -10221,7 +10264,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>426</v>
       </c>
@@ -10244,7 +10287,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>426</v>
       </c>
@@ -10267,7 +10310,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>426</v>
       </c>
@@ -10290,7 +10333,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>426</v>
       </c>
@@ -10313,7 +10356,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>426</v>
       </c>
@@ -10336,7 +10379,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>426</v>
       </c>
@@ -10359,7 +10402,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>426</v>
       </c>
@@ -10382,7 +10425,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>426</v>
       </c>
@@ -10405,7 +10448,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>426</v>
       </c>
@@ -10428,7 +10471,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>426</v>
       </c>
@@ -10451,7 +10494,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>426</v>
       </c>
@@ -10474,7 +10517,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>426</v>
       </c>
@@ -10497,7 +10540,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>426</v>
       </c>
@@ -10520,7 +10563,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>426</v>
       </c>
@@ -10543,7 +10586,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>426</v>
       </c>
@@ -10566,7 +10609,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>426</v>
       </c>
@@ -10589,7 +10632,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>426</v>
       </c>
@@ -10612,7 +10655,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>426</v>
       </c>
@@ -10635,7 +10678,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>426</v>
       </c>
@@ -10658,7 +10701,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>426</v>
       </c>
@@ -10681,7 +10724,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>426</v>
       </c>
@@ -10704,7 +10747,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>426</v>
       </c>
@@ -10727,7 +10770,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>426</v>
       </c>
@@ -10750,7 +10793,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>426</v>
       </c>
@@ -10773,7 +10816,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>426</v>
       </c>
@@ -10796,7 +10839,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>426</v>
       </c>
@@ -10819,7 +10862,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>426</v>
       </c>
@@ -10842,7 +10885,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>426</v>
       </c>
@@ -10865,7 +10908,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>426</v>
       </c>
@@ -10888,7 +10931,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>426</v>
       </c>
@@ -10911,7 +10954,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>426</v>
       </c>
@@ -10934,7 +10977,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>426</v>
       </c>
@@ -10957,7 +11000,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>426</v>
       </c>
@@ -10980,7 +11023,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>426</v>
       </c>
@@ -11003,7 +11046,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>426</v>
       </c>
@@ -11026,7 +11069,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>426</v>
       </c>
@@ -11049,7 +11092,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>426</v>
       </c>
@@ -11072,7 +11115,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>426</v>
       </c>
@@ -11095,7 +11138,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>426</v>
       </c>
@@ -11118,7 +11161,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>426</v>
       </c>
@@ -11141,7 +11184,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>426</v>
       </c>
@@ -11164,7 +11207,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>426</v>
       </c>
@@ -11187,7 +11230,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>426</v>
       </c>
@@ -11210,7 +11253,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>426</v>
       </c>
@@ -11233,7 +11276,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>426</v>
       </c>
@@ -11256,7 +11299,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>426</v>
       </c>
@@ -11279,7 +11322,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>426</v>
       </c>
@@ -11302,7 +11345,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>426</v>
       </c>
@@ -11325,7 +11368,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>426</v>
       </c>
@@ -11348,7 +11391,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>426</v>
       </c>
@@ -11371,7 +11414,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>426</v>
       </c>
@@ -11394,7 +11437,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>426</v>
       </c>
@@ -11417,7 +11460,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>426</v>
       </c>
@@ -11440,7 +11483,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>426</v>
       </c>
@@ -11463,7 +11506,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>426</v>
       </c>
@@ -11486,7 +11529,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>426</v>
       </c>
@@ -11509,7 +11552,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>426</v>
       </c>
@@ -11532,7 +11575,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>426</v>
       </c>
@@ -11555,7 +11598,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>426</v>
       </c>
@@ -11578,7 +11621,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>426</v>
       </c>
@@ -11601,7 +11644,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>426</v>
       </c>
@@ -11624,7 +11667,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>426</v>
       </c>
@@ -11647,7 +11690,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>426</v>
       </c>
@@ -11670,7 +11713,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>426</v>
       </c>
@@ -11693,7 +11736,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>426</v>
       </c>
@@ -11716,7 +11759,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>426</v>
       </c>
@@ -11739,7 +11782,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>426</v>
       </c>
@@ -11762,7 +11805,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>426</v>
       </c>
@@ -11785,7 +11828,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>426</v>
       </c>
@@ -11808,7 +11851,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>426</v>
       </c>
@@ -11831,7 +11874,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>426</v>
       </c>
@@ -11854,7 +11897,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>100</v>
       </c>
@@ -11877,7 +11920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>101</v>
       </c>
@@ -11900,7 +11943,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>102</v>
       </c>
@@ -11923,7 +11966,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>103</v>
       </c>
@@ -11946,7 +11989,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>104</v>
       </c>
@@ -11969,7 +12012,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>105</v>
       </c>
@@ -11992,7 +12035,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>106</v>
       </c>
@@ -12015,7 +12058,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>107</v>
       </c>
@@ -12038,7 +12081,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>108</v>
       </c>
@@ -12061,7 +12104,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>109</v>
       </c>
@@ -12084,7 +12127,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>110</v>
       </c>
@@ -12107,7 +12150,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>111</v>
       </c>
@@ -12130,7 +12173,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>112</v>
       </c>
@@ -12153,7 +12196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>113</v>
       </c>
@@ -12176,7 +12219,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>114</v>
       </c>
@@ -12199,7 +12242,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>115</v>
       </c>
@@ -12222,7 +12265,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>116</v>
       </c>
@@ -12245,7 +12288,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>117</v>
       </c>
@@ -12268,7 +12311,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>118</v>
       </c>
@@ -12291,7 +12334,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>119</v>
       </c>
@@ -12314,7 +12357,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>120</v>
       </c>
@@ -12337,7 +12380,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>121</v>
       </c>
@@ -12360,7 +12403,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>122</v>
       </c>
@@ -12383,7 +12426,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>123</v>
       </c>
@@ -12406,7 +12449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>124</v>
       </c>
@@ -12429,7 +12472,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>125</v>
       </c>
@@ -12452,7 +12495,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>126</v>
       </c>
@@ -12475,7 +12518,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>127</v>
       </c>
@@ -12498,7 +12541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>128</v>
       </c>
@@ -12521,7 +12564,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>129</v>
       </c>
@@ -12544,7 +12587,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>130</v>
       </c>
@@ -12567,7 +12610,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>131</v>
       </c>
@@ -12590,7 +12633,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>132</v>
       </c>
@@ -12613,7 +12656,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>133</v>
       </c>
@@ -12636,7 +12679,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>134</v>
       </c>
@@ -12659,7 +12702,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>135</v>
       </c>
@@ -12682,7 +12725,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>136</v>
       </c>
@@ -12705,7 +12748,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>137</v>
       </c>
@@ -12728,7 +12771,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>138</v>
       </c>
@@ -12751,7 +12794,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>139</v>
       </c>
@@ -12774,7 +12817,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>140</v>
       </c>
@@ -12797,7 +12840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>141</v>
       </c>
@@ -12820,7 +12863,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>142</v>
       </c>
@@ -12843,7 +12886,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>143</v>
       </c>
@@ -12866,7 +12909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>144</v>
       </c>
@@ -12889,7 +12932,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>145</v>
       </c>
@@ -12912,7 +12955,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>146</v>
       </c>
@@ -12935,7 +12978,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>147</v>
       </c>
@@ -12958,7 +13001,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>148</v>
       </c>
@@ -12981,7 +13024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>149</v>
       </c>
@@ -13004,7 +13047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>150</v>
       </c>
@@ -13027,7 +13070,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>151</v>
       </c>
@@ -13050,7 +13093,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>152</v>
       </c>
@@ -13073,7 +13116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>153</v>
       </c>
@@ -13096,7 +13139,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>154</v>
       </c>
@@ -13119,7 +13162,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>155</v>
       </c>
@@ -13142,7 +13185,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>156</v>
       </c>
@@ -13165,7 +13208,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>157</v>
       </c>
@@ -13188,7 +13231,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>158</v>
       </c>
@@ -13211,7 +13254,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>159</v>
       </c>
@@ -13234,7 +13277,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>160</v>
       </c>
@@ -13257,7 +13300,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>161</v>
       </c>
@@ -13280,7 +13323,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>162</v>
       </c>
@@ -13303,7 +13346,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>163</v>
       </c>
@@ -13326,7 +13369,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>164</v>
       </c>
@@ -13349,7 +13392,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>165</v>
       </c>
@@ -13372,7 +13415,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>166</v>
       </c>
@@ -13395,7 +13438,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>167</v>
       </c>
@@ -13418,7 +13461,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>168</v>
       </c>
@@ -13441,7 +13484,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>169</v>
       </c>
@@ -13464,7 +13507,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>170</v>
       </c>
@@ -13487,7 +13530,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>171</v>
       </c>
@@ -13510,7 +13553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>172</v>
       </c>
@@ -13533,7 +13576,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>173</v>
       </c>
@@ -13556,7 +13599,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>174</v>
       </c>
@@ -13579,7 +13622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>175</v>
       </c>
@@ -13602,7 +13645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>176</v>
       </c>
@@ -13625,7 +13668,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>177</v>
       </c>
@@ -13648,7 +13691,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>178</v>
       </c>
@@ -13671,7 +13714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>179</v>
       </c>
@@ -13694,7 +13737,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>180</v>
       </c>
@@ -13717,7 +13760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>181</v>
       </c>
@@ -13740,7 +13783,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>182</v>
       </c>
@@ -13763,7 +13806,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>183</v>
       </c>
@@ -13786,7 +13829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>184</v>
       </c>
@@ -13809,7 +13852,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>185</v>
       </c>
@@ -13832,7 +13875,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>186</v>
       </c>
@@ -13855,7 +13898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>187</v>
       </c>
@@ -13878,7 +13921,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>188</v>
       </c>
@@ -13901,7 +13944,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>189</v>
       </c>
@@ -13924,7 +13967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>190</v>
       </c>
@@ -13947,7 +13990,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>191</v>
       </c>
@@ -13970,7 +14013,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>192</v>
       </c>
@@ -13993,7 +14036,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>193</v>
       </c>
@@ -14016,7 +14059,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>194</v>
       </c>
@@ -14039,7 +14082,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>195</v>
       </c>
@@ -14062,7 +14105,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>196</v>
       </c>
@@ -14085,7 +14128,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>197</v>
       </c>
@@ -14108,7 +14151,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>198</v>
       </c>
@@ -14131,7 +14174,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>199</v>
       </c>
@@ -14154,7 +14197,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>200</v>
       </c>
@@ -14177,7 +14220,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>201</v>
       </c>
@@ -14200,7 +14243,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>202</v>
       </c>
@@ -14223,7 +14266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>203</v>
       </c>
@@ -14246,7 +14289,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>204</v>
       </c>
@@ -14269,7 +14312,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>205</v>
       </c>
@@ -14292,7 +14335,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>206</v>
       </c>
@@ -14315,7 +14358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>207</v>
       </c>
@@ -14338,7 +14381,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>952</v>
       </c>
@@ -14361,7 +14404,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>953</v>
       </c>
@@ -14384,7 +14427,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>954</v>
       </c>
@@ -14407,7 +14450,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>955</v>
       </c>
@@ -14430,7 +14473,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>956</v>
       </c>
@@ -14453,7 +14496,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>957</v>
       </c>
@@ -14476,7 +14519,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>958</v>
       </c>
@@ -14499,7 +14542,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>960</v>
       </c>
@@ -14522,7 +14565,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>965</v>
       </c>
@@ -14545,7 +14588,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>971</v>
       </c>
@@ -14568,7 +14611,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>976</v>
       </c>
@@ -14591,7 +14634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>980</v>
       </c>
@@ -14614,7 +14657,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>981</v>
       </c>
@@ -14637,7 +14680,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>982</v>
       </c>
@@ -14660,7 +14703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>959</v>
       </c>
@@ -14683,7 +14726,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>988</v>
       </c>
@@ -14706,7 +14749,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>989</v>
       </c>
@@ -14729,7 +14772,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>990</v>
       </c>
@@ -14752,7 +14795,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>959</v>
       </c>
@@ -14775,7 +14818,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>959</v>
       </c>
@@ -14798,7 +14841,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>959</v>
       </c>
@@ -14821,7 +14864,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>208</v>
       </c>
@@ -14844,7 +14887,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>209</v>
       </c>
@@ -14867,7 +14910,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>210</v>
       </c>
@@ -14890,7 +14933,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>211</v>
       </c>
@@ -14913,7 +14956,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>212</v>
       </c>
@@ -14936,7 +14979,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>213</v>
       </c>
@@ -14959,7 +15002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>214</v>
       </c>
@@ -14982,7 +15025,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>215</v>
       </c>
@@ -15005,7 +15048,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>216</v>
       </c>
@@ -15028,7 +15071,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>217</v>
       </c>
@@ -15051,7 +15094,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>218</v>
       </c>
@@ -15074,7 +15117,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>219</v>
       </c>
@@ -15097,7 +15140,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>220</v>
       </c>
@@ -15120,7 +15163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>221</v>
       </c>
@@ -15143,7 +15186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>222</v>
       </c>
@@ -15166,7 +15209,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>223</v>
       </c>
@@ -15189,7 +15232,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>224</v>
       </c>
@@ -15212,7 +15255,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>225</v>
       </c>
@@ -15235,7 +15278,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>226</v>
       </c>
@@ -15258,7 +15301,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>227</v>
       </c>
@@ -15281,7 +15324,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>228</v>
       </c>
@@ -15304,7 +15347,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>229</v>
       </c>
@@ -15327,7 +15370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>230</v>
       </c>
@@ -15350,7 +15393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>231</v>
       </c>
@@ -15373,7 +15416,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>232</v>
       </c>
@@ -15396,7 +15439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>233</v>
       </c>
@@ -15419,7 +15462,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>234</v>
       </c>
@@ -15442,7 +15485,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>235</v>
       </c>
@@ -15465,7 +15508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>236</v>
       </c>
@@ -15488,7 +15531,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>237</v>
       </c>
@@ -15511,7 +15554,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>238</v>
       </c>
@@ -15534,7 +15577,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>239</v>
       </c>
@@ -15557,7 +15600,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>240</v>
       </c>
@@ -15580,7 +15623,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>241</v>
       </c>
@@ -15603,7 +15646,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>242</v>
       </c>
@@ -15626,7 +15669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>243</v>
       </c>
@@ -15649,7 +15692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>244</v>
       </c>
@@ -15672,7 +15715,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>245</v>
       </c>
@@ -15695,7 +15738,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>246</v>
       </c>
@@ -15718,7 +15761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>247</v>
       </c>
@@ -15741,7 +15784,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>248</v>
       </c>
@@ -15764,7 +15807,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>249</v>
       </c>
@@ -15787,7 +15830,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>250</v>
       </c>
@@ -15810,7 +15853,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>251</v>
       </c>
@@ -15833,7 +15876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>252</v>
       </c>
@@ -15856,7 +15899,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>253</v>
       </c>
@@ -15879,7 +15922,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>254</v>
       </c>
@@ -15902,7 +15945,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>255</v>
       </c>
@@ -15925,7 +15968,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>256</v>
       </c>
@@ -15948,7 +15991,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>257</v>
       </c>
@@ -15971,7 +16014,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>258</v>
       </c>
@@ -15994,7 +16037,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>259</v>
       </c>
@@ -16017,7 +16060,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>260</v>
       </c>
@@ -16040,7 +16083,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>262</v>
       </c>
@@ -16063,7 +16106,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>263</v>
       </c>
@@ -16086,7 +16129,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>264</v>
       </c>
@@ -16109,7 +16152,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>265</v>
       </c>
@@ -16132,7 +16175,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>266</v>
       </c>
@@ -16155,7 +16198,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>267</v>
       </c>
@@ -16178,7 +16221,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>268</v>
       </c>
@@ -16201,7 +16244,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>269</v>
       </c>
@@ -16224,7 +16267,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>270</v>
       </c>
@@ -16247,7 +16290,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>271</v>
       </c>
@@ -16270,7 +16313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>272</v>
       </c>
@@ -16293,7 +16336,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>273</v>
       </c>
@@ -16316,7 +16359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>274</v>
       </c>
@@ -16339,7 +16382,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>275</v>
       </c>
@@ -16362,7 +16405,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>276</v>
       </c>
@@ -16385,7 +16428,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>277</v>
       </c>
@@ -16408,7 +16451,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>278</v>
       </c>
@@ -16431,7 +16474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>279</v>
       </c>
@@ -16454,7 +16497,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>280</v>
       </c>
@@ -16477,7 +16520,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>281</v>
       </c>
@@ -16500,7 +16543,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>282</v>
       </c>
@@ -16523,7 +16566,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>283</v>
       </c>
@@ -16546,7 +16589,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>284</v>
       </c>
@@ -16569,7 +16612,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>285</v>
       </c>
@@ -16592,7 +16635,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>286</v>
       </c>
@@ -16615,7 +16658,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>287</v>
       </c>
@@ -16638,7 +16681,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>288</v>
       </c>
@@ -16661,7 +16704,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>289</v>
       </c>
@@ -16684,7 +16727,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>290</v>
       </c>
@@ -16707,7 +16750,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>291</v>
       </c>
@@ -16730,7 +16773,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>292</v>
       </c>
@@ -16753,7 +16796,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>293</v>
       </c>
@@ -16776,7 +16819,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>294</v>
       </c>
@@ -16799,7 +16842,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>295</v>
       </c>
@@ -16822,7 +16865,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>296</v>
       </c>
@@ -16845,7 +16888,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>297</v>
       </c>
@@ -16868,7 +16911,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>298</v>
       </c>
@@ -16891,7 +16934,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>299</v>
       </c>
@@ -16914,7 +16957,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>300</v>
       </c>
@@ -16937,7 +16980,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>301</v>
       </c>
@@ -16960,7 +17003,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>302</v>
       </c>
@@ -16983,7 +17026,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>303</v>
       </c>
@@ -17006,7 +17049,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>304</v>
       </c>
@@ -17029,7 +17072,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>305</v>
       </c>
@@ -17052,7 +17095,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>306</v>
       </c>
@@ -17075,7 +17118,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>307</v>
       </c>
@@ -17098,7 +17141,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>308</v>
       </c>
@@ -17121,7 +17164,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>309</v>
       </c>
@@ -17144,7 +17187,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>310</v>
       </c>
@@ -17167,7 +17210,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>311</v>
       </c>
@@ -17190,7 +17233,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>312</v>
       </c>
@@ -17213,7 +17256,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>313</v>
       </c>
@@ -17236,7 +17279,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>314</v>
       </c>
@@ -17259,7 +17302,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>315</v>
       </c>
@@ -17282,7 +17325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>316</v>
       </c>
@@ -17305,7 +17348,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>317</v>
       </c>
@@ -17328,7 +17371,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>318</v>
       </c>
@@ -17351,7 +17394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>319</v>
       </c>
@@ -17374,7 +17417,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>320</v>
       </c>
@@ -17397,7 +17440,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>321</v>
       </c>
@@ -17420,7 +17463,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>322</v>
       </c>
@@ -17443,7 +17486,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>323</v>
       </c>
@@ -17466,7 +17509,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>324</v>
       </c>
@@ -17489,7 +17532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>325</v>
       </c>
@@ -17512,7 +17555,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>326</v>
       </c>
@@ -17535,7 +17578,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>327</v>
       </c>
@@ -17558,7 +17601,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>328</v>
       </c>
@@ -17581,7 +17624,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>329</v>
       </c>
@@ -17604,7 +17647,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>330</v>
       </c>
@@ -17627,7 +17670,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>331</v>
       </c>
@@ -17650,7 +17693,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>332</v>
       </c>
@@ -17673,7 +17716,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>333</v>
       </c>
@@ -17696,7 +17739,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>334</v>
       </c>
@@ -17719,7 +17762,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>335</v>
       </c>
@@ -17742,7 +17785,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>336</v>
       </c>
@@ -17765,7 +17808,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>337</v>
       </c>
@@ -17788,7 +17831,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>338</v>
       </c>
@@ -17811,7 +17854,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>339</v>
       </c>
@@ -17834,7 +17877,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>340</v>
       </c>
@@ -17857,7 +17900,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>341</v>
       </c>
@@ -17880,7 +17923,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>342</v>
       </c>
@@ -17903,7 +17946,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>342</v>
       </c>
@@ -17926,7 +17969,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>344</v>
       </c>
@@ -17949,7 +17992,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>345</v>
       </c>
@@ -17972,7 +18015,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>346</v>
       </c>
@@ -17995,7 +18038,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>347</v>
       </c>
@@ -18018,7 +18061,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>348</v>
       </c>
@@ -18041,7 +18084,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>349</v>
       </c>
@@ -18064,7 +18107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>350</v>
       </c>
@@ -18087,7 +18130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>351</v>
       </c>
@@ -18110,7 +18153,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>1243</v>
       </c>
@@ -18133,7 +18176,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>1247</v>
       </c>
@@ -18156,7 +18199,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>1248</v>
       </c>
@@ -18179,7 +18222,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>1251</v>
       </c>
@@ -18202,7 +18245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>1252</v>
       </c>
@@ -18225,7 +18268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>1253</v>
       </c>
@@ -18248,7 +18291,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>1254</v>
       </c>
@@ -18271,7 +18314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>1255</v>
       </c>
@@ -18294,7 +18337,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>1256</v>
       </c>
@@ -18317,7 +18360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>1257</v>
       </c>
@@ -18340,7 +18383,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>1259</v>
       </c>
@@ -18363,7 +18406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>1260</v>
       </c>
@@ -18386,7 +18429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>1262</v>
       </c>
@@ -18409,7 +18452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>1264</v>
       </c>
@@ -18432,7 +18475,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>1264</v>
       </c>
@@ -18455,7 +18498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>1264</v>
       </c>
@@ -18478,7 +18521,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>1265</v>
       </c>
@@ -18501,7 +18544,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>1265</v>
       </c>
@@ -18524,7 +18567,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>1265</v>
       </c>
@@ -18547,7 +18590,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>1265</v>
       </c>
@@ -18570,7 +18613,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>1265</v>
       </c>
@@ -18593,7 +18636,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>1265</v>
       </c>
@@ -18616,7 +18659,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>1265</v>
       </c>
@@ -18639,7 +18682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>1265</v>
       </c>
@@ -18662,7 +18705,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>1265</v>
       </c>
@@ -18685,7 +18728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>1282</v>
       </c>
@@ -18708,7 +18751,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>1287</v>
       </c>
@@ -18731,7 +18774,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>1289</v>
       </c>
@@ -18754,7 +18797,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>1294</v>
       </c>
@@ -18777,7 +18820,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>1297</v>
       </c>
@@ -18800,7 +18843,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>1298</v>
       </c>
@@ -18823,7 +18866,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>1300</v>
       </c>
@@ -18846,7 +18889,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>1301</v>
       </c>
@@ -18869,7 +18912,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>1302</v>
       </c>
@@ -18892,7 +18935,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>1307</v>
       </c>
@@ -18915,7 +18958,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>1308</v>
       </c>
@@ -18938,7 +18981,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>1312</v>
       </c>
@@ -18961,7 +19004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>1313</v>
       </c>
@@ -18984,7 +19027,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>1315</v>
       </c>
@@ -19007,7 +19050,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>1318</v>
       </c>
@@ -19030,7 +19073,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>1318</v>
       </c>
@@ -19053,7 +19096,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>1318</v>
       </c>
@@ -19076,7 +19119,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>1318</v>
       </c>
@@ -19099,7 +19142,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>1318</v>
       </c>
@@ -19122,7 +19165,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>1318</v>
       </c>
@@ -19145,7 +19188,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>1326</v>
       </c>
@@ -19168,7 +19211,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>1326</v>
       </c>
@@ -19191,7 +19234,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>1326</v>
       </c>
@@ -19214,7 +19257,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>1326</v>
       </c>
@@ -19237,7 +19280,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>1330</v>
       </c>
@@ -19260,7 +19303,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>1330</v>
       </c>
@@ -19283,7 +19326,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>1330</v>
       </c>
@@ -19306,7 +19349,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1330</v>
       </c>
@@ -19329,7 +19372,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>1330</v>
       </c>
@@ -19352,7 +19395,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>1330</v>
       </c>
@@ -19375,7 +19418,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>1330</v>
       </c>
@@ -19398,7 +19441,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>1330</v>
       </c>
@@ -19421,7 +19464,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>1330</v>
       </c>
@@ -19444,7 +19487,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>1348</v>
       </c>
@@ -19467,7 +19510,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>1350</v>
       </c>
@@ -19490,7 +19533,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>1352</v>
       </c>
@@ -19513,7 +19556,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>1354</v>
       </c>
@@ -19536,7 +19579,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>1355</v>
       </c>
@@ -19559,7 +19602,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>1356</v>
       </c>
@@ -19582,7 +19625,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>1359</v>
       </c>
@@ -19605,7 +19648,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>1362</v>
       </c>
@@ -19628,7 +19671,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>1364</v>
       </c>
@@ -19651,7 +19694,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>1365</v>
       </c>
@@ -19674,7 +19717,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>1366</v>
       </c>

--- a/Johnson_Hall_Specimen_Collection.xlsx
+++ b/Johnson_Hall_Specimen_Collection.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elman/Documents/GitHub/JH-Specimen-Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B27D33-0B78-FC48-B014-74E6985FCECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E432FD-16BC-5045-A09F-66694A09E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{D0AFC8F9-2078-412A-8DA7-00D3BCD68DE4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19220" windowHeight="18000" xr2:uid="{D0AFC8F9-2078-412A-8DA7-00D3BCD68DE4}"/>
   </bookViews>
   <sheets>
     <sheet name="JH Specimen Notes" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4003" uniqueCount="1454">
   <si>
     <t>ID_Number</t>
   </si>
@@ -4156,6 +4156,246 @@
   </si>
   <si>
     <t>JH0003</t>
+  </si>
+  <si>
+    <t>JH0005</t>
+  </si>
+  <si>
+    <t>JH0007</t>
+  </si>
+  <si>
+    <t>JH0011</t>
+  </si>
+  <si>
+    <t>JH0012</t>
+  </si>
+  <si>
+    <t>JH0037</t>
+  </si>
+  <si>
+    <t>JH0042</t>
+  </si>
+  <si>
+    <t>JH0046</t>
+  </si>
+  <si>
+    <t>JH0076</t>
+  </si>
+  <si>
+    <t>JH0048</t>
+  </si>
+  <si>
+    <t>JH0063</t>
+  </si>
+  <si>
+    <t>JH0068</t>
+  </si>
+  <si>
+    <t>JH0069</t>
+  </si>
+  <si>
+    <t>JH0070</t>
+  </si>
+  <si>
+    <t>JH0071</t>
+  </si>
+  <si>
+    <t>JH0072</t>
+  </si>
+  <si>
+    <t>JH0077</t>
+  </si>
+  <si>
+    <t>JH0078</t>
+  </si>
+  <si>
+    <t>JH0080</t>
+  </si>
+  <si>
+    <t>JH0081</t>
+  </si>
+  <si>
+    <t>JH0082</t>
+  </si>
+  <si>
+    <t>JH0086</t>
+  </si>
+  <si>
+    <t>JH0089</t>
+  </si>
+  <si>
+    <t>JH0091</t>
+  </si>
+  <si>
+    <t>JH0017</t>
+  </si>
+  <si>
+    <t>JH0018</t>
+  </si>
+  <si>
+    <t>JH0019</t>
+  </si>
+  <si>
+    <t>JH0020</t>
+  </si>
+  <si>
+    <t>JH0021</t>
+  </si>
+  <si>
+    <t>JH0022</t>
+  </si>
+  <si>
+    <t>JH0043</t>
+  </si>
+  <si>
+    <t>JH0084</t>
+  </si>
+  <si>
+    <t>JH0083</t>
+  </si>
+  <si>
+    <t>JH0004</t>
+  </si>
+  <si>
+    <t>JH0009</t>
+  </si>
+  <si>
+    <t>JH0010</t>
+  </si>
+  <si>
+    <t>JH0008</t>
+  </si>
+  <si>
+    <t>JH0015</t>
+  </si>
+  <si>
+    <t>JH0016</t>
+  </si>
+  <si>
+    <t>JH0024</t>
+  </si>
+  <si>
+    <t>JH0025</t>
+  </si>
+  <si>
+    <t>JH0028</t>
+  </si>
+  <si>
+    <t>JH0030</t>
+  </si>
+  <si>
+    <t>JH0031</t>
+  </si>
+  <si>
+    <t>JH0032</t>
+  </si>
+  <si>
+    <t>JH0035</t>
+  </si>
+  <si>
+    <t>JH0036</t>
+  </si>
+  <si>
+    <t>JH0038</t>
+  </si>
+  <si>
+    <t>JH0039</t>
+  </si>
+  <si>
+    <t>JH0040</t>
+  </si>
+  <si>
+    <t>JH0041</t>
+  </si>
+  <si>
+    <t>JH0044</t>
+  </si>
+  <si>
+    <t>JH0045</t>
+  </si>
+  <si>
+    <t>JH0047</t>
+  </si>
+  <si>
+    <t>JH0049</t>
+  </si>
+  <si>
+    <t>JH0050</t>
+  </si>
+  <si>
+    <t>JH0052</t>
+  </si>
+  <si>
+    <t>JH0053</t>
+  </si>
+  <si>
+    <t>JH0054</t>
+  </si>
+  <si>
+    <t>JH0055</t>
+  </si>
+  <si>
+    <t>JH0056</t>
+  </si>
+  <si>
+    <t>JH0057</t>
+  </si>
+  <si>
+    <t>JH0059</t>
+  </si>
+  <si>
+    <t>JH0060</t>
+  </si>
+  <si>
+    <t>JH0061</t>
+  </si>
+  <si>
+    <t>JH0064</t>
+  </si>
+  <si>
+    <t>JH0066</t>
+  </si>
+  <si>
+    <t>JH0067</t>
+  </si>
+  <si>
+    <t>JH0073</t>
+  </si>
+  <si>
+    <t>JH0074</t>
+  </si>
+  <si>
+    <t>JH0079</t>
+  </si>
+  <si>
+    <t>JH0085</t>
+  </si>
+  <si>
+    <t>JH0087</t>
+  </si>
+  <si>
+    <t>JH0088</t>
+  </si>
+  <si>
+    <t>JH0090</t>
+  </si>
+  <si>
+    <t>JH0092</t>
+  </si>
+  <si>
+    <t>JH0094</t>
+  </si>
+  <si>
+    <t>JH0095</t>
+  </si>
+  <si>
+    <t>JH0096</t>
+  </si>
+  <si>
+    <t>JH0097</t>
+  </si>
+  <si>
+    <t>JH0099</t>
   </si>
 </sst>
 </file>
@@ -4513,8 +4753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24342DA8-CDB1-4D63-87BA-93DDB7702C97}">
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A623" zoomScale="60" workbookViewId="0">
+      <selection activeCell="H101" sqref="H101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4523,9 +4763,9 @@
     <col min="2" max="2" width="35.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="62.83203125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="44.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" customWidth="1"/>
+    <col min="7" max="7" width="62.83203125" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4655,6 +4895,9 @@
       <c r="G5" t="s">
         <v>22</v>
       </c>
+      <c r="H5" t="s">
+        <v>1406</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -4678,6 +4921,9 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
+      <c r="H6" t="s">
+        <v>1374</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -4727,6 +4973,9 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
+      <c r="H8" t="s">
+        <v>1375</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -4750,6 +4999,9 @@
       <c r="G9" t="s">
         <v>32</v>
       </c>
+      <c r="H9" t="s">
+        <v>1409</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -4773,6 +5025,9 @@
       <c r="G10" t="s">
         <v>36</v>
       </c>
+      <c r="H10" t="s">
+        <v>1407</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -4796,6 +5051,9 @@
       <c r="G11" t="s">
         <v>37</v>
       </c>
+      <c r="H11" t="s">
+        <v>1408</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -4819,6 +5077,9 @@
       <c r="G12" t="s">
         <v>40</v>
       </c>
+      <c r="H12" t="s">
+        <v>1376</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -4842,6 +5103,9 @@
       <c r="G13" t="s">
         <v>43</v>
       </c>
+      <c r="H13" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -4917,6 +5181,9 @@
       <c r="G16" t="s">
         <v>46</v>
       </c>
+      <c r="H16" t="s">
+        <v>1410</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -4939,6 +5206,9 @@
       </c>
       <c r="G17" t="s">
         <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1411</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -4963,6 +5233,9 @@
       <c r="G18" t="s">
         <v>55</v>
       </c>
+      <c r="H18" t="s">
+        <v>1397</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -4986,6 +5259,9 @@
       <c r="G19" t="s">
         <v>59</v>
       </c>
+      <c r="H19" t="s">
+        <v>1398</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -5009,6 +5285,9 @@
       <c r="G20" t="s">
         <v>63</v>
       </c>
+      <c r="H20" t="s">
+        <v>1399</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
@@ -5032,6 +5311,9 @@
       <c r="G21" t="s">
         <v>66</v>
       </c>
+      <c r="H21" t="s">
+        <v>1400</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
@@ -5055,6 +5337,9 @@
       <c r="G22" t="s">
         <v>67</v>
       </c>
+      <c r="H22" t="s">
+        <v>1401</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
@@ -5078,6 +5363,9 @@
       <c r="G23" t="s">
         <v>70</v>
       </c>
+      <c r="H23" t="s">
+        <v>1402</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
@@ -5127,6 +5415,9 @@
       <c r="G25" t="s">
         <v>74</v>
       </c>
+      <c r="H25" t="s">
+        <v>1412</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
@@ -5150,6 +5441,9 @@
       <c r="G26" t="s">
         <v>76</v>
       </c>
+      <c r="H26" t="s">
+        <v>1413</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
@@ -5222,6 +5516,9 @@
       <c r="G29" t="s">
         <v>80</v>
       </c>
+      <c r="H29" t="s">
+        <v>1414</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
@@ -5271,6 +5568,9 @@
       <c r="G31" t="s">
         <v>86</v>
       </c>
+      <c r="H31" t="s">
+        <v>1415</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
@@ -5294,6 +5594,9 @@
       <c r="G32" t="s">
         <v>89</v>
       </c>
+      <c r="H32" t="s">
+        <v>1416</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
@@ -5317,6 +5620,9 @@
       <c r="G33" t="s">
         <v>94</v>
       </c>
+      <c r="H33" t="s">
+        <v>1417</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -5392,6 +5698,9 @@
       <c r="G36" t="s">
         <v>97</v>
       </c>
+      <c r="H36" t="s">
+        <v>1418</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -5415,6 +5724,9 @@
       <c r="G37" t="s">
         <v>117</v>
       </c>
+      <c r="H37" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
@@ -5438,6 +5750,9 @@
       <c r="G38" t="s">
         <v>101</v>
       </c>
+      <c r="H38" t="s">
+        <v>1378</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -5461,6 +5776,9 @@
       <c r="G39" t="s">
         <v>104</v>
       </c>
+      <c r="H39" t="s">
+        <v>1420</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
@@ -5484,6 +5802,9 @@
       <c r="G40" t="s">
         <v>108</v>
       </c>
+      <c r="H40" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
@@ -5507,6 +5828,9 @@
       <c r="G41" t="s">
         <v>109</v>
       </c>
+      <c r="H41" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
@@ -5530,6 +5854,9 @@
       <c r="G42" t="s">
         <v>114</v>
       </c>
+      <c r="H42" t="s">
+        <v>1423</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -5553,6 +5880,9 @@
       <c r="G43" t="s">
         <v>115</v>
       </c>
+      <c r="H43" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
@@ -5576,6 +5906,9 @@
       <c r="G44" t="s">
         <v>119</v>
       </c>
+      <c r="H44" t="s">
+        <v>1403</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
@@ -5599,6 +5932,9 @@
       <c r="G45" t="s">
         <v>122</v>
       </c>
+      <c r="H45" t="s">
+        <v>1424</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -5622,6 +5958,9 @@
       <c r="G46" t="s">
         <v>126</v>
       </c>
+      <c r="H46" t="s">
+        <v>1425</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -5645,6 +5984,9 @@
       <c r="G47" t="s">
         <v>128</v>
       </c>
+      <c r="H47" t="s">
+        <v>1380</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
@@ -5668,6 +6010,9 @@
       <c r="G48" t="s">
         <v>130</v>
       </c>
+      <c r="H48" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
@@ -5691,6 +6036,9 @@
       <c r="G49" t="s">
         <v>134</v>
       </c>
+      <c r="H49" t="s">
+        <v>1382</v>
+      </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
@@ -5714,6 +6062,9 @@
       <c r="G50" t="s">
         <v>138</v>
       </c>
+      <c r="H50" t="s">
+        <v>1427</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
@@ -5737,6 +6088,9 @@
       <c r="G51" t="s">
         <v>139</v>
       </c>
+      <c r="H51" t="s">
+        <v>1428</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
@@ -5786,6 +6140,9 @@
       <c r="G53" t="s">
         <v>16</v>
       </c>
+      <c r="H53" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
@@ -5809,6 +6166,9 @@
       <c r="G54" t="s">
         <v>145</v>
       </c>
+      <c r="H54" t="s">
+        <v>1430</v>
+      </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
@@ -5832,6 +6192,9 @@
       <c r="G55" t="s">
         <v>147</v>
       </c>
+      <c r="H55" t="s">
+        <v>1431</v>
+      </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
@@ -5855,6 +6218,9 @@
       <c r="G56" t="s">
         <v>149</v>
       </c>
+      <c r="H56" t="s">
+        <v>1432</v>
+      </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
@@ -5878,6 +6244,9 @@
       <c r="G57" t="s">
         <v>151</v>
       </c>
+      <c r="H57" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
@@ -5901,6 +6270,9 @@
       <c r="G58" t="s">
         <v>154</v>
       </c>
+      <c r="H58" t="s">
+        <v>1434</v>
+      </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
@@ -5950,6 +6322,9 @@
       <c r="G60" t="s">
         <v>161</v>
       </c>
+      <c r="H60" t="s">
+        <v>1435</v>
+      </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
@@ -5973,6 +6348,9 @@
       <c r="G61" t="s">
         <v>161</v>
       </c>
+      <c r="H61" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
@@ -5996,6 +6374,9 @@
       <c r="G62" t="s">
         <v>158</v>
       </c>
+      <c r="H62" t="s">
+        <v>1437</v>
+      </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
@@ -6045,6 +6426,9 @@
       <c r="G64" t="s">
         <v>167</v>
       </c>
+      <c r="H64" t="s">
+        <v>1383</v>
+      </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
@@ -6068,6 +6452,9 @@
       <c r="G65" t="s">
         <v>158</v>
       </c>
+      <c r="H65" t="s">
+        <v>1438</v>
+      </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
@@ -6117,6 +6504,9 @@
       <c r="G67" t="s">
         <v>169</v>
       </c>
+      <c r="H67" t="s">
+        <v>1439</v>
+      </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
@@ -6140,6 +6530,9 @@
       <c r="G68" t="s">
         <v>170</v>
       </c>
+      <c r="H68" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
@@ -6163,6 +6556,9 @@
       <c r="G69" t="s">
         <v>171</v>
       </c>
+      <c r="H69" t="s">
+        <v>1384</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
@@ -6186,6 +6582,9 @@
       <c r="G70" t="s">
         <v>173</v>
       </c>
+      <c r="H70" t="s">
+        <v>1385</v>
+      </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
@@ -6209,6 +6608,9 @@
       <c r="G71" t="s">
         <v>175</v>
       </c>
+      <c r="H71" t="s">
+        <v>1386</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
@@ -6232,6 +6634,9 @@
       <c r="G72" t="s">
         <v>178</v>
       </c>
+      <c r="H72" t="s">
+        <v>1387</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
@@ -6255,6 +6660,9 @@
       <c r="G73" t="s">
         <v>181</v>
       </c>
+      <c r="H73" t="s">
+        <v>1388</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
@@ -6278,6 +6686,9 @@
       <c r="G74" t="s">
         <v>182</v>
       </c>
+      <c r="H74" t="s">
+        <v>1441</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
@@ -6301,6 +6712,9 @@
       <c r="G75" t="s">
         <v>156</v>
       </c>
+      <c r="H75" t="s">
+        <v>1442</v>
+      </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -6350,6 +6764,9 @@
       <c r="G77" t="s">
         <v>156</v>
       </c>
+      <c r="H77" t="s">
+        <v>1381</v>
+      </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
@@ -6373,6 +6790,9 @@
       <c r="G78" t="s">
         <v>187</v>
       </c>
+      <c r="H78" t="s">
+        <v>1389</v>
+      </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -6396,6 +6816,9 @@
       <c r="G79" t="s">
         <v>189</v>
       </c>
+      <c r="H79" t="s">
+        <v>1390</v>
+      </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
@@ -6419,8 +6842,11 @@
       <c r="G80" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H80" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -6442,8 +6868,11 @@
       <c r="G81" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H81" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -6465,8 +6894,11 @@
       <c r="G82" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H82" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -6488,8 +6920,11 @@
       <c r="G83" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H83" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -6511,8 +6946,11 @@
       <c r="G84" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H84" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -6534,8 +6972,11 @@
       <c r="G85" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H85" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -6557,8 +6998,11 @@
       <c r="G86" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H86" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -6580,8 +7024,11 @@
       <c r="G87" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H87" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -6603,8 +7050,11 @@
       <c r="G88" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H88" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -6626,8 +7076,11 @@
       <c r="G89" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H89" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -6649,8 +7102,11 @@
       <c r="G90" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H90" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -6672,8 +7128,11 @@
       <c r="G91" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -6695,8 +7154,11 @@
       <c r="G92" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H92" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -6718,8 +7180,11 @@
       <c r="G93" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H93" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -6742,7 +7207,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -6764,8 +7229,11 @@
       <c r="G95" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -6786,6 +7254,9 @@
       </c>
       <c r="G96" t="s">
         <v>222</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
@@ -6810,6 +7281,9 @@
       <c r="G97" t="s">
         <v>225</v>
       </c>
+      <c r="H97" t="s">
+        <v>1451</v>
+      </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
@@ -6833,6 +7307,9 @@
       <c r="G98" t="s">
         <v>139</v>
       </c>
+      <c r="H98" t="s">
+        <v>1452</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
@@ -6881,6 +7358,9 @@
       </c>
       <c r="G100" t="s">
         <v>228</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
